--- a/Project plan.xlsx
+++ b/Project plan.xlsx
@@ -230,16 +230,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -259,8 +251,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +292,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -436,38 +449,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,421 +800,422 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="16"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="16"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="16"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="16"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="16"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="16"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="4"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="4"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="F34" s="4"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="16"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="16"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="16"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="16"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Project plan.xlsx
+++ b/Project plan.xlsx
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -458,7 +458,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,8 +480,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +801,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,322 +835,322 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="F14" s="16"/>
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="16"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="16"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
